--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716482.3826239924</v>
+        <v>679194.4801399792</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12433859.31651125</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6544539.720854488</v>
+        <v>5739665.974240758</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9332082.582681658</v>
+        <v>9736277.693549033</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>129.538278081653</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.304249461732</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>134.3646350838597</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>123.2955075885798</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>110.3403768066301</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>141.5339419229203</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>148.260178929299</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>128.9521645690644</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>175.1758420150669</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>125.8951146780596</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>80.07341750140129</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>288.3551381560173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>278.0818333067239</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>9.808079101204486</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.781160222249673</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835173</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1423,22 +1423,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>129.471426936783</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.78083674902071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>251.6719641693167</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>39.6806752299007</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>301.2402584038907</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>79.76470074482921</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>131.5730391207946</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>187.4572656874209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.6407719183047</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>53.85366032725198</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>118.3069478219491</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>74.75769145492337</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>174.9123239800291</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>403.1657022537962</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>109.7472660450971</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>74.75769145492382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>407.0181781096231</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>138.1468804189084</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.259425062653</v>
+        <v>160.7035496952604</v>
       </c>
     </row>
     <row r="29">
@@ -2803,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>324.3985984863151</v>
       </c>
       <c r="G29" t="n">
-        <v>188.2196394312107</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.1609968929771</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>92.01936427017731</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>191.6662024438894</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>317.9226464802977</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>120.7056494455305</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>4.04318711639923</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>106.5867442799596</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>120.6088074159607</v>
       </c>
       <c r="H38" t="n">
-        <v>229.7965692041376</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>104.2871089987313</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>142.6955872305738</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680963</v>
+        <v>138.9527516093538</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>86.66480470122553</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>76.34924850973024</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>230.2267521569527</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>12.84713688558967</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>104.2871089987313</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>137.5684432757741</v>
+        <v>1082.534146117595</v>
       </c>
       <c r="C2" t="n">
-        <v>137.5684432757741</v>
+        <v>713.5716291771834</v>
       </c>
       <c r="D2" t="n">
-        <v>137.5684432757741</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E2" t="n">
-        <v>137.5684432757741</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F2" t="n">
-        <v>137.5684432757741</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515904</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>924.0087744690013</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>670.32375641013</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>403.9460998429521</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W2" t="n">
-        <v>403.9460998429521</v>
+        <v>2232.739076418608</v>
       </c>
       <c r="X2" t="n">
-        <v>403.9460998429521</v>
+        <v>1859.273318157529</v>
       </c>
       <c r="Y2" t="n">
-        <v>137.5684432757741</v>
+        <v>1469.133986181717</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.5812722902314</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C3" t="n">
-        <v>121.5812722902314</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D3" t="n">
-        <v>121.5812722902314</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>801.9449557744477</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098642</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>709.4101432413019</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>481.2742972781153</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>246.1221890463726</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>121.5812722902314</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>121.5812722902314</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>121.5812722902314</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>911.8919423061051</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C4" t="n">
-        <v>911.8919423061051</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D4" t="n">
-        <v>761.7753028937693</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E4" t="n">
-        <v>613.8622093113762</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F4" t="n">
-        <v>466.9722618134659</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>911.8919423061051</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>911.8919423061051</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>911.8919423061051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.4869675567999</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C5" t="n">
-        <v>33.72921106255855</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>33.72921106255855</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>33.72921106255855</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>33.72921106255855</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>33.72921106255855</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>33.72921106255855</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>107.8290791267618</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>269.6240911917569</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>507.2468724099484</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>803.3174389675509</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1108.792545203136</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>1383.90876451977</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>1584.213091808873</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>1686.460553127927</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1686.460553127927</v>
+        <v>2432.084616714232</v>
       </c>
       <c r="W5" t="n">
-        <v>1333.691897857813</v>
+        <v>2079.315961444117</v>
       </c>
       <c r="X5" t="n">
-        <v>960.2261395967334</v>
+        <v>2079.315961444117</v>
       </c>
       <c r="Y5" t="n">
-        <v>570.0868076209217</v>
+        <v>1689.176629468306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208.1822403436856</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>33.72921106255855</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>33.72921106255855</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>33.72921106255855</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>33.72921106255855</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>33.72921106255855</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>33.72921106255855</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>59.04473788968937</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>442.288414802421</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>651.8792880552517</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>915.8188195507389</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1201.152689984071</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1439.95764173553</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>1612.286602689239</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.460553127927</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1509.515258163213</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1281.398841294185</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1046.246733062442</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>792.0093763342404</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>584.1578761287076</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>376.3975773637536</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>890.6906211270904</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C7" t="n">
-        <v>721.7544381991835</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>571.6377987868477</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>423.7247052044546</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>276.8347577065442</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>276.8347577065442</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>149.6679752034538</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>33.72921106255855</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>35.96388306992289</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>169.472972355726</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>395.84507567387</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>644.9118420064103</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>893.4909737490111</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1107.077740097166</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1266.31743473321</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1293.13166510086</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1293.13166510086</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1293.13166510086</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1293.13166510086</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1293.13166510086</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.13166510086</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.13166510086</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>1293.13166510086</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>1072.33908595733</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>437.0350391662473</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D8" t="n">
-        <v>437.0350391662473</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E8" t="n">
-        <v>51.2467865680031</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="F8" t="n">
-        <v>51.2467865680031</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1861.38035112061</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.2467865680031</v>
+        <v>229.1404018670018</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>229.1404018670018</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>229.1404018670018</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>229.1404018670018</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056666</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764924</v>
+        <v>631.5814458407716</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.2467865680031</v>
+        <v>410.7888666972415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796261</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392144</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324639</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5108,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1901.535346136983</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1532.572829196571</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5293,37 +5293,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="Y14" t="n">
-        <v>2424.744041450754</v>
+        <v>2288.135186201104</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>832.2419174096015</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1698.50962791956</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C17" t="n">
-        <v>1698.50962791956</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008241</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.50962791956</v>
+        <v>1624.638712032429</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>922.6774975139006</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T19" t="n">
-        <v>1837.464090846021</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U19" t="n">
-        <v>1548.361223971664</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V19" t="n">
-        <v>1293.676735765777</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.32596234414</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X19" t="n">
-        <v>1104.32596234414</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y19" t="n">
-        <v>1104.32596234414</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>535.9822032813809</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>535.9822032813809</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>120.9097531263773</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5779,25 +5779,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2641.774278995485</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y20" t="n">
-        <v>2641.774278995485</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.5121164321834</v>
@@ -5834,10 +5834,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,7 +5849,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1042.179465010819</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W22" t="n">
-        <v>1672.610059882606</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X22" t="n">
-        <v>1444.620508984588</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y22" t="n">
-        <v>1223.827929841058</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2295.336172843073</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1926.373655902661</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1568.107957295911</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.319704697666</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>771.3337999080588</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5989,10 +5989,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6019,22 +6019,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>3072.075344883006</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>3072.075344883006</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>3072.075344883006</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y23" t="n">
-        <v>2681.936012907195</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
@@ -6071,10 +6071,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6083,10 +6083,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>142.0249360836216</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>142.0249360836216</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>142.0249360836216</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>142.0249360836216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V25" t="n">
-        <v>880.2242361621296</v>
+        <v>1161.740577577774</v>
       </c>
       <c r="W25" t="n">
-        <v>590.8070661251691</v>
+        <v>872.3234075408134</v>
       </c>
       <c r="X25" t="n">
-        <v>362.8175152271517</v>
+        <v>644.333856642796</v>
       </c>
       <c r="Y25" t="n">
-        <v>142.0249360836216</v>
+        <v>644.333856642796</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1477.112184968822</v>
+        <v>2001.643962205201</v>
       </c>
       <c r="C26" t="n">
-        <v>1108.149668028411</v>
+        <v>1632.681445264789</v>
       </c>
       <c r="D26" t="n">
-        <v>749.8839694216604</v>
+        <v>1274.415746658038</v>
       </c>
       <c r="E26" t="n">
-        <v>364.0957168234162</v>
+        <v>888.6274940597941</v>
       </c>
       <c r="F26" t="n">
-        <v>364.0957168234162</v>
+        <v>477.6415892701866</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
         <v>66.51211643218342</v>
@@ -6229,13 +6229,13 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6256,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3119.628073993393</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V26" t="n">
-        <v>2980.08577053995</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2627.317115269836</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X26" t="n">
-        <v>2253.851357008756</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y26" t="n">
-        <v>1863.712025032944</v>
+        <v>2388.243802269322</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
         <v>66.51211643218342</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V28" t="n">
-        <v>1927.294548088493</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W28" t="n">
-        <v>1637.877378051532</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X28" t="n">
-        <v>1409.887827153515</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>1964.273285499504</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1595.310768559092</v>
       </c>
       <c r="D29" t="n">
-        <v>1095.40402049088</v>
+        <v>1237.045069952341</v>
       </c>
       <c r="E29" t="n">
-        <v>709.6157678926361</v>
+        <v>851.2568173540972</v>
       </c>
       <c r="F29" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
         <v>108.5090151927147</v>
@@ -6460,55 +6460,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>2350.873125563625</v>
       </c>
     </row>
     <row r="30">
@@ -6533,22 +6533,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>848.0708164780106</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E31" t="n">
         <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1715.010712843061</v>
       </c>
       <c r="U31" t="n">
-        <v>1927.294548088493</v>
+        <v>1425.907845968705</v>
       </c>
       <c r="V31" t="n">
-        <v>1767.918581386758</v>
+        <v>1171.223357762818</v>
       </c>
       <c r="W31" t="n">
-        <v>1478.501411349798</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="X31" t="n">
-        <v>1250.51186045178</v>
+        <v>881.8061877258572</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.71928130825</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1822.632236038042</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C32" t="n">
-        <v>1453.669719097631</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D32" t="n">
-        <v>1095.40402049088</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E32" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.60582160917</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W32" t="n">
-        <v>2972.837166339056</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X32" t="n">
-        <v>2599.371408077976</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.232076102164</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.4482993600903</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1699.083419349081</v>
+        <v>1733.692323397695</v>
       </c>
       <c r="U34" t="n">
-        <v>1409.980552474725</v>
+        <v>1444.589456523339</v>
       </c>
       <c r="V34" t="n">
-        <v>1155.296064268838</v>
+        <v>1189.904968317452</v>
       </c>
       <c r="W34" t="n">
-        <v>865.8788942318774</v>
+        <v>900.4877982804915</v>
       </c>
       <c r="X34" t="n">
-        <v>637.8893433338601</v>
+        <v>900.4877982804915</v>
       </c>
       <c r="Y34" t="n">
-        <v>417.09676419033</v>
+        <v>679.6952191369613</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2209.232076102165</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C35" t="n">
-        <v>1840.269559161753</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D35" t="n">
-        <v>1482.003860555003</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>1096.215607956759</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>685.2297031671512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6961,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>3325.605821609171</v>
+        <v>3093.390254706436</v>
       </c>
       <c r="W35" t="n">
-        <v>2972.837166339057</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X35" t="n">
-        <v>2599.371408077977</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.232076102165</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2170.872131622243</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>2170.872131622243</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622243</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.95903803985</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193525</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.322864763051</v>
+        <v>1923.210520698191</v>
       </c>
       <c r="U37" t="n">
-        <v>2533.219997888695</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V37" t="n">
-        <v>2278.535509682808</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W37" t="n">
-        <v>2170.872131622243</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X37" t="n">
-        <v>2170.872131622243</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y37" t="n">
-        <v>2170.872131622243</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038043</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097632</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.404020490881</v>
+        <v>985.1133520179753</v>
       </c>
       <c r="E38" t="n">
-        <v>709.615767892637</v>
+        <v>599.325099419731</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030294</v>
+        <v>188.3391946301235</v>
       </c>
       <c r="G38" t="n">
-        <v>298.6298631030294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339057</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077977</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102165</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2489.924953962485</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C40" t="n">
-        <v>2320.988771034578</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.872131622243</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.95903803985</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.069090541939</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1821.95403394836</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>1600.187418517886</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>1311.08455164353</v>
       </c>
       <c r="V40" t="n">
-        <v>3036.502954734814</v>
+        <v>1056.400063437643</v>
       </c>
       <c r="W40" t="n">
-        <v>3036.502954734814</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="X40" t="n">
-        <v>2892.365997936255</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y40" t="n">
-        <v>2671.573418792725</v>
+        <v>546.190314257152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>630.8037095364738</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C43" t="n">
-        <v>461.8675266085669</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D43" t="n">
-        <v>311.7508871962311</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>1550.651474445222</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W43" t="n">
-        <v>1261.234304408261</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X43" t="n">
-        <v>1033.244753510244</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y43" t="n">
-        <v>812.4521743667135</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7681,19 +7681,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>691.6489789975187</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="C46" t="n">
-        <v>522.7127960696118</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D46" t="n">
-        <v>372.5961566572761</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7836,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1638.191681214136</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1383.507193008249</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>1094.090022971289</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>1094.090022971289</v>
+        <v>766.9828934006821</v>
       </c>
       <c r="Y46" t="n">
-        <v>873.2974438277585</v>
+        <v>546.190314257152</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761153</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.032901224156</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>26.19461818159743</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.985656744431594</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>6.45443753892954</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>82.75143752157024</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>22.93671925568106</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>128.3994755723398</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>175.8867773145705</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>144.9890564136707</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>217.0127128417086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.3157839734241</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1044530022292</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>198.8000939010705</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>18.48669329276123</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22953,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.30777298586095</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23010,7 +23010,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>138.5112358506935</v>
       </c>
     </row>
     <row r="8">
@@ -23023,13 +23023,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>76.9177536149902</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23038,10 +23038,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>22.93671925568151</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,7 +23080,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,13 +23190,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>135.6129689217267</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>216.8034931298451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839101</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>256.7665117192705</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>126.4862188122807</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.9530049144599</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>103.0110774513663</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>178.9039781221941</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>81.49358325958985</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>274.9183408758537</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>35.67378197783324</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>99.06573264917009</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.09306974517585</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>240.7541040600685</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>48.93987327667875</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>71.6762711916458</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>207.8215176834515</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.756023399657238</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>70.08471413684015</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>21.59472895491427</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>3.903547543830371</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -24496,22 +24496,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>189.6053780512265</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>83.32522828944178</v>
+        <v>57.88110365683437</v>
       </c>
     </row>
     <row r="29">
@@ -24691,10 +24691,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>82.47744725539633</v>
       </c>
       <c r="G29" t="n">
-        <v>222.7020862222428</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24736,16 +24736,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>9.387952383192101</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -24976,13 +24976,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>277.7117364082917</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>183.3889571555937</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>27.88274683227982</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>92.99907917315579</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -25213,7 +25213,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>207.0466090246044</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>215.50576215977</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>179.9362540566314</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>290.3129182374928</v>
       </c>
       <c r="H38" t="n">
-        <v>64.81119518318289</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>85.48191633271057</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>83.01406815846337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493167</v>
+        <v>210.2882171080593</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>165.4728386226025</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>124.4562894637303</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>181.1251564493154</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>133.5868257609795</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>121.4225463903058</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>523336.9476551464</v>
+        <v>782991.1269625626</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632668.5581402066</v>
+        <v>782991.1269625626</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>782991.1269625626</v>
+        <v>782991.1269625624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>861641.9069024869</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>861641.9069024867</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024869</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>861641.9069024866</v>
+        <v>861641.9069024867</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>861641.9069024868</v>
+        <v>861641.9069024866</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203966.5811971123</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="C2" t="n">
-        <v>247001.9304687608</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709205</v>
@@ -26328,34 +26328,34 @@
         <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="H2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>340997.0989709206</v>
       </c>
-      <c r="I2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="J2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="N2" t="n">
         <v>340997.0989709204</v>
       </c>
-      <c r="N2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="O2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>174787.7031330587</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>225670.6156307092</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>167605.177809983</v>
       </c>
       <c r="K3" t="n">
-        <v>40638.73104112941</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55419.25877810584</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341497</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13649.17455297509</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="C4" t="n">
-        <v>15515.03330562077</v>
+        <v>18583.86599059037</v>
       </c>
       <c r="D4" t="n">
-        <v>18583.86599059034</v>
+        <v>18583.86599059035</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9770.403102091461</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="G4" t="n">
         <v>9770.403102091475</v>
@@ -26438,7 +26438,7 @@
         <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091477</v>
       </c>
       <c r="J4" t="n">
         <v>9770.403102091475</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>75611.38525919239</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26496,19 +26496,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552818.3771513221</v>
+        <v>-925529.2542339379</v>
       </c>
       <c r="C6" t="n">
-        <v>-18912.19122911103</v>
+        <v>189222.5293419823</v>
       </c>
       <c r="D6" t="n">
-        <v>-31220.62356683554</v>
+        <v>189222.5293419821</v>
       </c>
       <c r="E6" t="n">
-        <v>74847.37549024518</v>
+        <v>71371.18619218399</v>
       </c>
       <c r="F6" t="n">
-        <v>256920.3553074358</v>
+        <v>253444.1660093748</v>
       </c>
       <c r="G6" t="n">
-        <v>256920.3553074361</v>
+        <v>253444.1660093748</v>
       </c>
       <c r="H6" t="n">
-        <v>256920.3553074358</v>
+        <v>253444.1660093749</v>
       </c>
       <c r="I6" t="n">
-        <v>256920.3553074358</v>
+        <v>253444.166009375</v>
       </c>
       <c r="J6" t="n">
-        <v>187921.2008883217</v>
+        <v>85838.98819939156</v>
       </c>
       <c r="K6" t="n">
-        <v>216281.6242663063</v>
+        <v>253444.1660093749</v>
       </c>
       <c r="L6" t="n">
-        <v>201501.0965293299</v>
+        <v>253444.1660093747</v>
       </c>
       <c r="M6" t="n">
-        <v>209368.0895140207</v>
+        <v>205891.9002159601</v>
       </c>
       <c r="N6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093746</v>
       </c>
       <c r="O6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093748</v>
       </c>
       <c r="P6" t="n">
-        <v>256920.3553074357</v>
+        <v>253444.1660093749</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26816,19 +26816,19 @@
         <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694783</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>135.9259427281318</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184.0839356199293</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>157.9012582804757</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>218.9696938180569</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804755</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.9696938180569</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>157.9012582804757</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>218.9696938180569</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>95.1692700235088</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658379</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702307</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990948</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480712</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736545</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944814</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582789</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779068</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919121</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350555</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715651</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.014998820090892</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>30.87735666625586</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>255.8942561066896</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>383.5191561611372</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>475.7894263014939</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>529.4074115682853</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>537.9737769658685</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>507.9933824485897</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>433.5605990775957</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>325.5859538330906</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>189.3909196325347</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>68.70428561282128</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19815733494789</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.613166585674105</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>15.57979307743149</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>152.4088658859908</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>260.4910271261558</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>350.2623325605112</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>408.7396212911974</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>419.5577428240734</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>383.8133674257156</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>308.0440649433297</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>205.919299602891</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96386179969223</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.352424675651428</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>12.02428484351907</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>40.67109842777204</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>95.61642456855594</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1271577711386</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>201.0686649600314</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>211.9987152932506</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>206.9578596840045</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>191.15908051844</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>163.5696171351508</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.2471244311391</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H24" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q25" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217709</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664467</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186565</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441512</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117358</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>508.7132618620063</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>74.84835158000331</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>163.4293051161566</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>240.0230113315067</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>299.0611783410126</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>308.5607133692776</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>277.895171026903</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>202.3276033223262</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.2802639586411</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.57123921932407</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643754</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>211.707952780637</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>388.6189266346388</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.92318226130106</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.257244451883167</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>134.8576659452557</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>228.6586902203475</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>251.5825922550912</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>251.0900320632331</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>215.7442084324797</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>160.8481764000443</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.08508117944473</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>341.8791195350526</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
